--- a/04_reports/Other_results.xlsx
+++ b/04_reports/Other_results.xlsx
@@ -1,76 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsdi-my.sharepoint.com/personal/grazina_statkeviciute_lammc_lt/Documents/EditGrass4Food/MDPI_2023liepa/04_reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_C2CE303CA969E1241691C21D152B2B14AF8BA0C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EF9D6E8-F819-4B57-88BD-5400C0C4C4F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12720" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="derlius" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="derlius" sheetId="1" r:id="rId1"/>
+    <sheet name="procentai" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skirtumas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proc_skirtumas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>tot1</t>
+  </si>
+  <si>
+    <t>tot2</t>
+  </si>
+  <si>
+    <t>skirtumas</t>
+  </si>
+  <si>
+    <t>proc_skirtumas</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>cut1</t>
+  </si>
+  <si>
+    <t>dmy1</t>
+  </si>
+  <si>
+    <t>dmy1%</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>cut2</t>
+  </si>
+  <si>
+    <t>cut3</t>
+  </si>
+  <si>
+    <t>use_year</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>dmy</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>&lt;fct&gt;</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>dmy3%</t>
+  </si>
+  <si>
+    <t>dmy2%</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>cut4</t>
+  </si>
+  <si>
+    <t>dmy4%</t>
+  </si>
+  <si>
+    <t>koreliacija</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,13 +171,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBCBC"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,13 +210,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -387,14 +518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,212 +544,1629 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>7276.716</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3571.368</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>7276.7160000000003</v>
+      </c>
+      <c r="C2">
+        <v>3571.3679999999999</v>
+      </c>
+      <c r="D2">
         <v>3705.348</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>51</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>7500.189</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4051.399</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>7500.1890000000003</v>
+      </c>
+      <c r="C3">
+        <v>4051.3989999999999</v>
+      </c>
+      <c r="D3">
         <v>3448.79</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8432.223</v>
       </c>
-      <c r="C4" t="n">
-        <v>4569.61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3862.613</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>4569.6099999999997</v>
+      </c>
+      <c r="D4">
+        <v>3862.6129999999998</v>
+      </c>
+      <c r="E4">
         <v>46</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
-        <v>8576.957</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3454.387</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>8576.9570000000003</v>
+      </c>
+      <c r="C5">
+        <v>3454.3870000000002</v>
+      </c>
+      <c r="D5">
         <v>5122.57</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
-        <v>5586.026</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>5586.0259999999998</v>
+      </c>
+      <c r="C6">
         <v>1523.356</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4062.67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
-        <v>8674.722</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>8674.7219999999998</v>
+      </c>
+      <c r="C7">
         <v>3696.018</v>
       </c>
-      <c r="D7" t="n">
-        <v>4978.704</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>4978.7039999999997</v>
+      </c>
+      <c r="E7">
         <v>57</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
-        <v>9251.135</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>9251.1350000000002</v>
+      </c>
+      <c r="C8">
         <v>3724.181</v>
       </c>
-      <c r="D8" t="n">
-        <v>5526.954</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>5526.9539999999997</v>
+      </c>
+      <c r="E8">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
-        <v>8286.978</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2153.865</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6133.113</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B9">
+        <v>8286.9779999999992</v>
+      </c>
+      <c r="C9">
+        <v>2153.8649999999998</v>
+      </c>
+      <c r="D9">
+        <v>6133.1130000000003</v>
+      </c>
+      <c r="E9">
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
-        <v>8136.897</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3429.289</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4707.608</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="B10">
+        <v>8136.8969999999999</v>
+      </c>
+      <c r="C10">
+        <v>3429.2890000000002</v>
+      </c>
+      <c r="D10">
+        <v>4707.6080000000002</v>
+      </c>
+      <c r="E10">
         <v>58</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>13340.797</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4850.866</v>
       </c>
-      <c r="D11" t="n">
-        <v>8489.931</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>8489.9310000000005</v>
+      </c>
+      <c r="E11">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
-        <v>11004.655</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3038.202</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7966.453</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="B12">
+        <v>11004.655000000001</v>
+      </c>
+      <c r="C12">
+        <v>3038.2020000000002</v>
+      </c>
+      <c r="D12">
+        <v>7966.4530000000004</v>
+      </c>
+      <c r="E12">
         <v>72</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="n">
-        <v>14780.692</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5241.129</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9539.563</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="B13">
+        <v>14780.691999999999</v>
+      </c>
+      <c r="C13">
+        <v>5241.1289999999999</v>
+      </c>
+      <c r="D13">
+        <v>9539.5630000000001</v>
+      </c>
+      <c r="E13">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0F187-9730-4A4D-9970-1EB71ED9BCA3}">
+  <dimension ref="A1:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2172</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7276.7160000000003</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3678</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7500.1890000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2011</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2461</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8432.223</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>3531</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5">
+        <v>8576.9570000000003</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2013</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1629</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5586.0259999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2053</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5">
+        <v>8674.7219999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>5719</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5">
+        <v>10330.367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>4109</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5">
+        <v>9251.1350000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>4513</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8286.9779999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>3712</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8136.8969999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>8500</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5">
+        <v>13340.797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>6559</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11004.655000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10616</v>
+      </c>
+      <c r="F14">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>14780.691999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="4">
+        <f>CORREL(E2:E14,K2:K14)</f>
+        <v>0.94970123590484723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <f>MIN(F2:F14)</f>
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:K16" si="0">MIN(G2:G14)</f>
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="0"/>
+        <v>5586.0259999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <f>MAX(F2:F14)</f>
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <f>MAX(G2:G14)</f>
+        <v>49</v>
+      </c>
+      <c r="H17">
+        <f>MAX(H2:H14)</f>
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <f>MAX(I2:I14)</f>
+        <v>15</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ref="J17:K17" si="1">MAX(K2:K14)</f>
+        <v>14780.691999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5">
+        <f>AVERAGE(F2:F14)</f>
+        <v>46.07692307692308</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18:K18" si="2">AVERAGE(G2:G14)</f>
+        <v>35.230769230769234</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>16.384615384615383</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>9321.4118461538455</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="H19" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="I19" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2009</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>1708</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2009</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>3397</v>
+      </c>
+      <c r="O32">
+        <v>47</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2009</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2010</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>487</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2010</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>2198</v>
+      </c>
+      <c r="O33">
+        <v>29</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>2010</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33">
+        <v>1137</v>
+      </c>
+      <c r="V33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2011</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>2492</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>2011</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>3480</v>
+      </c>
+      <c r="O34">
+        <v>41</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>2011</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>2012</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>1959</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>2012</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>3086</v>
+      </c>
+      <c r="O35">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>2012</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>2013</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>1452</v>
+      </c>
+      <c r="H36">
+        <v>26</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>2013</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>2506</v>
+      </c>
+      <c r="O36">
+        <v>45</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>2013</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>2014</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>2337</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>2014</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>4285</v>
+      </c>
+      <c r="O37">
+        <v>49</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>2014</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2015</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>2015</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>2016</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2016</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>1729</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>2016</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <v>2882</v>
+      </c>
+      <c r="O39">
+        <v>27</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39">
+        <v>2017</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39">
+        <v>778</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>2017</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>478</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>2017</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>3887</v>
+      </c>
+      <c r="O40">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>2018</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>2018</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>525</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>2018</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>3249</v>
+      </c>
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>11</v>
+      </c>
+      <c r="R41">
+        <v>2019</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41">
+        <v>559</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2019</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>1129</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="J42" s="2">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <v>2019</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>2737</v>
+      </c>
+      <c r="O42">
+        <v>34</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>12</v>
+      </c>
+      <c r="R42">
+        <v>2020</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>1610</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="J43" s="2">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>2020</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>3231</v>
+      </c>
+      <c r="O43">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>13</v>
+      </c>
+      <c r="R43">
+        <v>2021</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>2021</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>1972</v>
+      </c>
+      <c r="H44">
+        <v>18</v>
+      </c>
+      <c r="J44" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>2021</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>2473</v>
+      </c>
+      <c r="O44">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>2022</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44">
+        <v>127</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>586</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>2022</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>3451</v>
+      </c>
+      <c r="O45">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>